--- a/LME/parser_beta/data/investing_com/SPX.xlsx
+++ b/LME/parser_beta/data/investing_com/SPX.xlsx
@@ -693,7 +693,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>45222</v>

--- a/LME/parser_beta/data/investing_com/SPX.xlsx
+++ b/LME/parser_beta/data/investing_com/SPX.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>45254</v>

--- a/LME/parser_beta/data/investing_com/SPX.xlsx
+++ b/LME/parser_beta/data/investing_com/SPX.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>45260</v>
